--- a/PROJ2/covid19_knn_regressor_rank.xlsx
+++ b/PROJ2/covid19_knn_regressor_rank.xlsx
@@ -28,34 +28,34 @@
     <t>MAE</t>
   </si>
   <si>
-    <t>(7, 'distance', 'manhattan', 'kd_tree', 10)</t>
-  </si>
-  <si>
-    <t>(7, 'distance', 'manhattan', 'ball_tree', 10)</t>
-  </si>
-  <si>
-    <t>(7, 'distance', 'manhattan', 'kd_tree', 30)</t>
-  </si>
-  <si>
-    <t>(7, 'distance', 'manhattan', 'kd_tree', 70)</t>
-  </si>
-  <si>
-    <t>(7, 'distance', 'manhattan', 'kd_tree', 150)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'kd_tree', 300)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'ball_tree', 150)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'ball_tree', 300)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'kd_tree', 70)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'ball_tree', 70)</t>
+    <t>(3, 'distance', 'chebyshev', 'brute', 70)</t>
+  </si>
+  <si>
+    <t>(3, 'distance', 'chebyshev', 'brute', 150)</t>
+  </si>
+  <si>
+    <t>(3, 'distance', 'chebyshev', 'brute', 30)</t>
+  </si>
+  <si>
+    <t>(3, 'distance', 'chebyshev', 'brute', 300)</t>
+  </si>
+  <si>
+    <t>(3, 'distance', 'chebyshev', 'brute', 10)</t>
+  </si>
+  <si>
+    <t>(3, 'distance', 'manhattan', 'kd_tree', 10)</t>
+  </si>
+  <si>
+    <t>(3, 'distance', 'manhattan', 'brute', 10)</t>
+  </si>
+  <si>
+    <t>(3, 'distance', 'manhattan', 'kd_tree', 30)</t>
+  </si>
+  <si>
+    <t>(3, 'distance', 'manhattan', 'ball_tree', 30)</t>
+  </si>
+  <si>
+    <t>(3, 'distance', 'manhattan', 'ball_tree', 10)</t>
   </si>
 </sst>
 </file>
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.9998017126134032</v>
+        <v>0.9996211712091984</v>
       </c>
       <c r="D2">
-        <v>17624.54871794872</v>
+        <v>31001.32435897436</v>
       </c>
       <c r="E2">
-        <v>17.45641025641025</v>
+        <v>25.11153846153846</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.9998017126134032</v>
+        <v>0.9996211712091984</v>
       </c>
       <c r="D3">
-        <v>17624.54871794872</v>
+        <v>31001.32435897436</v>
       </c>
       <c r="E3">
-        <v>17.45641025641025</v>
+        <v>25.11153846153846</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.9998017126134032</v>
+        <v>0.9996211712091984</v>
       </c>
       <c r="D4">
-        <v>17624.54871794872</v>
+        <v>31001.32435897436</v>
       </c>
       <c r="E4">
-        <v>17.45641025641025</v>
+        <v>25.11153846153846</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.9998017126134032</v>
+        <v>0.9996211712091984</v>
       </c>
       <c r="D5">
-        <v>17624.54871794872</v>
+        <v>31001.32435897436</v>
       </c>
       <c r="E5">
-        <v>17.45641025641025</v>
+        <v>25.11153846153846</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.9998017126134032</v>
+        <v>0.9996211712091984</v>
       </c>
       <c r="D6">
-        <v>17624.54871794872</v>
+        <v>31001.32435897436</v>
       </c>
       <c r="E6">
-        <v>17.45641025641025</v>
+        <v>25.11153846153846</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.9997815687743761</v>
+        <v>0.9995973586037076</v>
       </c>
       <c r="D7">
-        <v>12832.65897435897</v>
+        <v>32408.03076923077</v>
       </c>
       <c r="E7">
-        <v>17.61794871794872</v>
+        <v>21.28974358974359</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.9997815687743761</v>
+        <v>0.9995973586037076</v>
       </c>
       <c r="D8">
-        <v>12832.65897435897</v>
+        <v>32408.03076923077</v>
       </c>
       <c r="E8">
-        <v>17.61794871794872</v>
+        <v>21.28974358974359</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.9997815687743761</v>
+        <v>0.9995973586037076</v>
       </c>
       <c r="D9">
-        <v>12832.65897435897</v>
+        <v>32408.03076923077</v>
       </c>
       <c r="E9">
-        <v>17.61794871794872</v>
+        <v>21.28974358974359</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.9997815681005794</v>
+        <v>0.9995973586037076</v>
       </c>
       <c r="D10">
-        <v>12832.65897435897</v>
+        <v>32408.03076923077</v>
       </c>
       <c r="E10">
-        <v>17.61794871794872</v>
+        <v>21.28974358974359</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.9997815681005794</v>
+        <v>0.9995973586037076</v>
       </c>
       <c r="D11">
-        <v>12832.65897435897</v>
+        <v>32408.03076923077</v>
       </c>
       <c r="E11">
-        <v>17.61794871794872</v>
+        <v>21.28974358974359</v>
       </c>
     </row>
   </sheetData>

--- a/PROJ2/covid19_knn_regressor_rank.xlsx
+++ b/PROJ2/covid19_knn_regressor_rank.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Combinations</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>(7, 'distance', 'manhattan', 'kd_tree', 10)</t>
-  </si>
-  <si>
-    <t>(7, 'distance', 'manhattan', 'ball_tree', 10)</t>
-  </si>
-  <si>
-    <t>(7, 'distance', 'manhattan', 'kd_tree', 30)</t>
-  </si>
-  <si>
-    <t>(7, 'distance', 'manhattan', 'kd_tree', 70)</t>
-  </si>
-  <si>
-    <t>(7, 'distance', 'manhattan', 'kd_tree', 150)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'kd_tree', 300)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'ball_tree', 150)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'ball_tree', 300)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'kd_tree', 70)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'ball_tree', 70)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -115,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -412,198 +353,333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Combinations</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(100.0, 'Default', 1.0, 4.0)</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9912606426682804</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23413.39358974359</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.43205128205128</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.0056</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(100.0, 'Default', 2.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9911562198754206</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10935.21153846154</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17.1576923076923</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.576</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(1000.0, 'Default', 1.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9908874498743265</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32487.69102564102</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26.41666666666667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.750299999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(500.0, 'Default', 1.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9894011692433047</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36369.81282051282</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28.38205128205128</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.9855</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0.9998017126134032</v>
-      </c>
-      <c r="D2">
-        <v>17624.54871794872</v>
-      </c>
-      <c r="E2">
-        <v>17.45641025641025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(1000.0, 'Default', 2.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9884343046476699</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12724.73076923077</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.26666666666667</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.3968</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>0.9998017126134032</v>
-      </c>
-      <c r="D3">
-        <v>17624.54871794872</v>
-      </c>
-      <c r="E3">
-        <v>17.45641025641025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(500.0, 'Default', 2.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9849967020470859</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13652.80512820513</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17.93846153846154</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.445</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>0.9998017126134032</v>
-      </c>
-      <c r="D4">
-        <v>17624.54871794872</v>
-      </c>
-      <c r="E4">
-        <v>17.45641025641025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(500.0, 'Default', 2.0, 4.0)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9826390921053793</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15606.03461538462</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18.98333333333333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.7553</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>0.9998017126134032</v>
-      </c>
-      <c r="D5">
-        <v>17624.54871794872</v>
-      </c>
-      <c r="E5">
-        <v>17.45641025641025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(1000.0, 'Default', 2.0, 4.0)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9820277992891923</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16442.03076923077</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19.88461538461539</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.0913</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>0.9998017126134032</v>
-      </c>
-      <c r="D6">
-        <v>17624.54871794872</v>
-      </c>
-      <c r="E6">
-        <v>17.45641025641025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(100.0, 0.1, 2.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9635137628625543</v>
+      </c>
+      <c r="D10" t="n">
+        <v>132449.7974358974</v>
+      </c>
+      <c r="E10" t="n">
+        <v>55.14615384615384</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3825</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>0.9997815687743761</v>
-      </c>
-      <c r="D7">
-        <v>12832.65897435897</v>
-      </c>
-      <c r="E7">
-        <v>17.61794871794872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(100.0, 0.1, 3.0, 4.0)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9453866904625757</v>
+      </c>
+      <c r="D11" t="n">
+        <v>137127.0987179487</v>
+      </c>
+      <c r="E11" t="n">
+        <v>58.57820512820513</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4157</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>0.9997815687743761</v>
-      </c>
-      <c r="D8">
-        <v>12832.65897435897</v>
-      </c>
-      <c r="E8">
-        <v>17.61794871794872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(100.0, 0.1, 1.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9355101727934523</v>
+      </c>
+      <c r="D12" t="n">
+        <v>400705.5294871795</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.47051282051281</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3236</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>0.9997815687743761</v>
-      </c>
-      <c r="D9">
-        <v>12832.65897435897</v>
-      </c>
-      <c r="E9">
-        <v>17.61794871794872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>(100.0, 0.1, 2.0, 4.0)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9351775581613079</v>
+      </c>
+      <c r="D13" t="n">
+        <v>131911.9307692308</v>
+      </c>
+      <c r="E13" t="n">
+        <v>62.1076923076923</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3717</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>0.9997815681005794</v>
-      </c>
-      <c r="D10">
-        <v>12832.65897435897</v>
-      </c>
-      <c r="E10">
-        <v>17.61794871794872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>0.9997815681005794</v>
-      </c>
-      <c r="D11">
-        <v>12832.65897435897</v>
-      </c>
-      <c r="E11">
-        <v>17.61794871794872</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>(100.0, 0.1, 1.0, 4.0)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9348620097605046</v>
+      </c>
+      <c r="D14" t="n">
+        <v>509717.0833333334</v>
+      </c>
+      <c r="E14" t="n">
+        <v>115.7448717948718</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3073</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/PROJ2/covid19_knn_regressor_rank.xlsx
+++ b/PROJ2/covid19_knn_regressor_rank.xlsx
@@ -399,20 +399,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(100.0, 'Default', 1.0, 4.0)</t>
+          <t>('poly', 0.1, 1, 'auto')</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9912606426682804</v>
+        <v>0.8235267412119675</v>
       </c>
       <c r="D2" t="n">
-        <v>23413.39358974359</v>
+        <v>122794960.7641026</v>
       </c>
       <c r="E2" t="n">
-        <v>27.43205128205128</v>
+        <v>1448.038461538462</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0056</v>
+        <v>66.14019999999999</v>
       </c>
     </row>
     <row r="3">
@@ -421,20 +421,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(100.0, 'Default', 2.0, 2.0)</t>
+          <t>('poly', 0.1, 1, 'scale')</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9911562198754206</v>
+        <v>0.8235267412119675</v>
       </c>
       <c r="D3" t="n">
-        <v>10935.21153846154</v>
+        <v>122794960.7641026</v>
       </c>
       <c r="E3" t="n">
-        <v>17.1576923076923</v>
+        <v>1448.038461538462</v>
       </c>
       <c r="F3" t="n">
-        <v>1.576</v>
+        <v>67.29130000000001</v>
       </c>
     </row>
     <row r="4">
@@ -443,20 +443,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(1000.0, 'Default', 1.0, 2.0)</t>
+          <t>('linear', 0.1, 1, 'scale')</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9908874498743265</v>
+        <v>0.7501606144417515</v>
       </c>
       <c r="D4" t="n">
-        <v>32487.69102564102</v>
+        <v>817191665.3820513</v>
       </c>
       <c r="E4" t="n">
-        <v>26.41666666666667</v>
+        <v>2040.5</v>
       </c>
       <c r="F4" t="n">
-        <v>9.750299999999999</v>
+        <v>53.0292</v>
       </c>
     </row>
     <row r="5">
@@ -465,20 +465,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(500.0, 'Default', 1.0, 2.0)</t>
+          <t>('sigmoid', 1, 1, 'scale')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9894011692433047</v>
+        <v>0.01774846802633663</v>
       </c>
       <c r="D5" t="n">
-        <v>36369.81282051282</v>
+        <v>1430720793.139744</v>
       </c>
       <c r="E5" t="n">
-        <v>28.38205128205128</v>
+        <v>3338.19358974359</v>
       </c>
       <c r="F5" t="n">
-        <v>4.9855</v>
+        <v>107.1765</v>
       </c>
     </row>
     <row r="6">
@@ -487,20 +487,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(1000.0, 'Default', 2.0, 2.0)</t>
+          <t>('sigmoid', 1, 1, 'auto')</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9884343046476699</v>
+        <v>0.01774846802633663</v>
       </c>
       <c r="D6" t="n">
-        <v>12724.73076923077</v>
+        <v>1430720793.139744</v>
       </c>
       <c r="E6" t="n">
-        <v>18.26666666666667</v>
+        <v>3338.19358974359</v>
       </c>
       <c r="F6" t="n">
-        <v>14.3968</v>
+        <v>107.2565</v>
       </c>
     </row>
     <row r="7">
@@ -509,20 +509,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(500.0, 'Default', 2.0, 2.0)</t>
+          <t>('rbf', 1, 10, 'auto')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9849967020470859</v>
+        <v>0.007557691107527169</v>
       </c>
       <c r="D7" t="n">
-        <v>13652.80512820513</v>
+        <v>1438705067.65</v>
       </c>
       <c r="E7" t="n">
-        <v>17.93846153846154</v>
+        <v>3241.539743589743</v>
       </c>
       <c r="F7" t="n">
-        <v>7.445</v>
+        <v>39.9107</v>
       </c>
     </row>
     <row r="8">
@@ -531,20 +531,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(500.0, 'Default', 2.0, 4.0)</t>
+          <t>('rbf', 1, 10, 'scale')</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9826390921053793</v>
+        <v>0.007557691107527169</v>
       </c>
       <c r="D8" t="n">
-        <v>15606.03461538462</v>
+        <v>1438705067.65</v>
       </c>
       <c r="E8" t="n">
-        <v>18.98333333333333</v>
+        <v>3241.539743589743</v>
       </c>
       <c r="F8" t="n">
-        <v>6.7553</v>
+        <v>40.1047</v>
       </c>
     </row>
     <row r="9">
@@ -553,20 +553,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(1000.0, 'Default', 2.0, 4.0)</t>
+          <t>('rbf', 1, 5, 'scale')</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9820277992891923</v>
+        <v>-0.00322396483921424</v>
       </c>
       <c r="D9" t="n">
-        <v>16442.03076923077</v>
+        <v>1442373932.465384</v>
       </c>
       <c r="E9" t="n">
-        <v>19.88461538461539</v>
+        <v>3278.032051282051</v>
       </c>
       <c r="F9" t="n">
-        <v>13.0913</v>
+        <v>38.4425</v>
       </c>
     </row>
     <row r="10">
@@ -575,20 +575,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(100.0, 0.1, 2.0, 2.0)</t>
+          <t>('rbf', 1, 5, 'auto')</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9635137628625543</v>
+        <v>-0.00322396483921424</v>
       </c>
       <c r="D10" t="n">
-        <v>132449.7974358974</v>
+        <v>1442373932.465384</v>
       </c>
       <c r="E10" t="n">
-        <v>55.14615384615384</v>
+        <v>3278.032051282051</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3825</v>
+        <v>38.4535</v>
       </c>
     </row>
     <row r="11">
@@ -597,20 +597,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(100.0, 0.1, 3.0, 4.0)</t>
+          <t>('rbf', 1, 1, 'auto')</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9453866904625757</v>
+        <v>-0.01370826131431572</v>
       </c>
       <c r="D11" t="n">
-        <v>137127.0987179487</v>
+        <v>1445770975.248718</v>
       </c>
       <c r="E11" t="n">
-        <v>58.57820512820513</v>
+        <v>3313.128205128205</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4157</v>
+        <v>38.6127</v>
       </c>
     </row>
     <row r="12">
@@ -619,20 +619,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(100.0, 0.1, 1.0, 2.0)</t>
+          <t>('rbf', 1, 1, 'scale')</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9355101727934523</v>
+        <v>-0.01370826131431572</v>
       </c>
       <c r="D12" t="n">
-        <v>400705.5294871795</v>
+        <v>1445770975.248718</v>
       </c>
       <c r="E12" t="n">
-        <v>94.47051282051281</v>
+        <v>3313.128205128205</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3236</v>
+        <v>39.0789</v>
       </c>
     </row>
     <row r="13">
@@ -641,20 +641,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(100.0, 0.1, 2.0, 4.0)</t>
+          <t>('sigmoid', 0.1, 10, 'auto')</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9351775581613079</v>
+        <v>-0.11762804276258</v>
       </c>
       <c r="D13" t="n">
-        <v>131911.9307692308</v>
+        <v>1337917765.417949</v>
       </c>
       <c r="E13" t="n">
-        <v>62.1076923076923</v>
+        <v>3923.589743589744</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3717</v>
+        <v>93.1802</v>
       </c>
     </row>
     <row r="14">
@@ -663,20 +663,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(100.0, 0.1, 1.0, 4.0)</t>
+          <t>('sigmoid', 0.1, 10, 'scale')</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9348620097605046</v>
+        <v>-0.11762804276258</v>
       </c>
       <c r="D14" t="n">
-        <v>509717.0833333334</v>
+        <v>1337917765.417949</v>
       </c>
       <c r="E14" t="n">
-        <v>115.7448717948718</v>
+        <v>3923.589743589744</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3073</v>
+        <v>93.72750000000001</v>
       </c>
     </row>
   </sheetData>

--- a/PROJ2/covid19_knn_regressor_rank.xlsx
+++ b/PROJ2/covid19_knn_regressor_rank.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,20 +399,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('poly', 0.1, 1, 'auto')</t>
+          <t>('poly', 1, 10, 'scale')</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8235267412119675</v>
+        <v>0.8052912305095016</v>
       </c>
       <c r="D2" t="n">
-        <v>122794960.7641026</v>
+        <v>42958976.67307692</v>
       </c>
       <c r="E2" t="n">
-        <v>1448.038461538462</v>
+        <v>937.9935897435897</v>
       </c>
       <c r="F2" t="n">
-        <v>66.14019999999999</v>
+        <v>219.1347</v>
       </c>
     </row>
     <row r="3">
@@ -421,20 +421,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('poly', 0.1, 1, 'scale')</t>
+          <t>('poly', 0.2, 10, 'scale')</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8235267412119675</v>
+        <v>0.8052550238227575</v>
       </c>
       <c r="D3" t="n">
-        <v>122794960.7641026</v>
+        <v>42959827.17179487</v>
       </c>
       <c r="E3" t="n">
-        <v>1448.038461538462</v>
+        <v>937.9871794871796</v>
       </c>
       <c r="F3" t="n">
-        <v>67.29130000000001</v>
+        <v>159.1613</v>
       </c>
     </row>
     <row r="4">
@@ -443,20 +443,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('linear', 0.1, 1, 'scale')</t>
+          <t>('poly', 0.2, 10, 'auto')</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7501606144417515</v>
+        <v>0.8052550238227575</v>
       </c>
       <c r="D4" t="n">
-        <v>817191665.3820513</v>
+        <v>42959827.17179487</v>
       </c>
       <c r="E4" t="n">
-        <v>2040.5</v>
+        <v>937.9871794871796</v>
       </c>
       <c r="F4" t="n">
-        <v>53.0292</v>
+        <v>163.5467</v>
       </c>
     </row>
     <row r="5">
@@ -465,20 +465,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('sigmoid', 1, 1, 'scale')</t>
+          <t>('poly', 0.1, 10, 'scale')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01774846802633663</v>
+        <v>0.805253914689732</v>
       </c>
       <c r="D5" t="n">
-        <v>1430720793.139744</v>
+        <v>42959790.01666667</v>
       </c>
       <c r="E5" t="n">
-        <v>3338.19358974359</v>
+        <v>937.9807692307692</v>
       </c>
       <c r="F5" t="n">
-        <v>107.1765</v>
+        <v>178.7866</v>
       </c>
     </row>
     <row r="6">
@@ -487,20 +487,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('sigmoid', 1, 1, 'auto')</t>
+          <t>('poly', 0.1, 10, 'auto')</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01774846802633663</v>
+        <v>0.805253914689732</v>
       </c>
       <c r="D6" t="n">
-        <v>1430720793.139744</v>
+        <v>42959790.01666667</v>
       </c>
       <c r="E6" t="n">
-        <v>3338.19358974359</v>
+        <v>937.9807692307692</v>
       </c>
       <c r="F6" t="n">
-        <v>107.2565</v>
+        <v>180.5983</v>
       </c>
     </row>
     <row r="7">
@@ -509,20 +509,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('rbf', 1, 10, 'auto')</t>
+          <t>('poly', 1, 1, 'auto')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.007557691107527169</v>
+        <v>0.6401004985384136</v>
       </c>
       <c r="D7" t="n">
-        <v>1438705067.65</v>
+        <v>60958623.00256411</v>
       </c>
       <c r="E7" t="n">
-        <v>3241.539743589743</v>
+        <v>1116.597435897436</v>
       </c>
       <c r="F7" t="n">
-        <v>39.9107</v>
+        <v>67.3304</v>
       </c>
     </row>
     <row r="8">
@@ -531,20 +531,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('rbf', 1, 10, 'scale')</t>
+          <t>('poly', 1, 1, 'scale')</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.007557691107527169</v>
+        <v>0.6401004985384136</v>
       </c>
       <c r="D8" t="n">
-        <v>1438705067.65</v>
+        <v>60958623.00256411</v>
       </c>
       <c r="E8" t="n">
-        <v>3241.539743589743</v>
+        <v>1116.597435897436</v>
       </c>
       <c r="F8" t="n">
-        <v>40.1047</v>
+        <v>67.71080000000001</v>
       </c>
     </row>
     <row r="9">
@@ -553,20 +553,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('rbf', 1, 5, 'scale')</t>
+          <t>('poly', 0.2, 1, 'auto')</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.00322396483921424</v>
+        <v>0.6400445166301774</v>
       </c>
       <c r="D9" t="n">
-        <v>1442373932.465384</v>
+        <v>60959141.63717949</v>
       </c>
       <c r="E9" t="n">
-        <v>3278.032051282051</v>
+        <v>1116.59358974359</v>
       </c>
       <c r="F9" t="n">
-        <v>38.4425</v>
+        <v>91.8192</v>
       </c>
     </row>
     <row r="10">
@@ -575,20 +575,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('rbf', 1, 5, 'auto')</t>
+          <t>('poly', 0.1, 1, 'auto')</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.00322396483921424</v>
+        <v>0.6400441420509662</v>
       </c>
       <c r="D10" t="n">
-        <v>1442373932.465384</v>
+        <v>60958983.59102565</v>
       </c>
       <c r="E10" t="n">
-        <v>3278.032051282051</v>
+        <v>1116.585897435898</v>
       </c>
       <c r="F10" t="n">
-        <v>38.4535</v>
+        <v>62.5515</v>
       </c>
     </row>
     <row r="11">
@@ -597,86 +597,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('rbf', 1, 1, 'auto')</t>
+          <t>('poly', 0.1, 1, 'scale')</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.01370826131431572</v>
+        <v>0.6400441420509662</v>
       </c>
       <c r="D11" t="n">
-        <v>1445770975.248718</v>
+        <v>60958983.59102565</v>
       </c>
       <c r="E11" t="n">
-        <v>3313.128205128205</v>
+        <v>1116.585897435898</v>
       </c>
       <c r="F11" t="n">
-        <v>38.6127</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>('rbf', 1, 1, 'scale')</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.01370826131431572</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1445770975.248718</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3313.128205128205</v>
-      </c>
-      <c r="F12" t="n">
-        <v>39.0789</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>('sigmoid', 0.1, 10, 'auto')</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.11762804276258</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1337917765.417949</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3923.589743589744</v>
-      </c>
-      <c r="F13" t="n">
-        <v>93.1802</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>('sigmoid', 0.1, 10, 'scale')</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.11762804276258</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1337917765.417949</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3923.589743589744</v>
-      </c>
-      <c r="F14" t="n">
-        <v>93.72750000000001</v>
+        <v>62.6059</v>
       </c>
     </row>
   </sheetData>

--- a/PROJ2/covid19_knn_regressor_rank.xlsx
+++ b/PROJ2/covid19_knn_regressor_rank.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,20 +399,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(100.0, 'Default', 1.0, 4.0)</t>
+          <t>(500.0, 0.5, 2.0, 2.0)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9912606426682804</v>
+        <v>0.9994389466862063</v>
       </c>
       <c r="D2" t="n">
-        <v>23413.39358974359</v>
+        <v>292558.8397435897</v>
       </c>
       <c r="E2" t="n">
-        <v>27.43205128205128</v>
+        <v>55.92948717948718</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0056</v>
+        <v>4.8225</v>
       </c>
     </row>
     <row r="3">
@@ -421,20 +421,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(100.0, 'Default', 2.0, 2.0)</t>
+          <t>(500.0, 0.5, 2.0, 4.0)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9911562198754206</v>
+        <v>0.999396761494315</v>
       </c>
       <c r="D3" t="n">
-        <v>10935.21153846154</v>
+        <v>356054.5833333333</v>
       </c>
       <c r="E3" t="n">
-        <v>17.1576923076923</v>
+        <v>60.58589743589744</v>
       </c>
       <c r="F3" t="n">
-        <v>1.576</v>
+        <v>4.3776</v>
       </c>
     </row>
     <row r="4">
@@ -443,20 +443,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(1000.0, 'Default', 1.0, 2.0)</t>
+          <t>(100.0, 0.25, 2.0, 2.0)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9908874498743265</v>
+        <v>0.9993924919011415</v>
       </c>
       <c r="D4" t="n">
-        <v>32487.69102564102</v>
+        <v>248085.7141025641</v>
       </c>
       <c r="E4" t="n">
-        <v>26.41666666666667</v>
+        <v>59.42948717948718</v>
       </c>
       <c r="F4" t="n">
-        <v>9.750299999999999</v>
+        <v>0.6684</v>
       </c>
     </row>
     <row r="5">
@@ -465,20 +465,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(500.0, 'Default', 1.0, 2.0)</t>
+          <t>(100.0, 0.5, 2.0, 2.0)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9894011692433047</v>
+        <v>0.9993806549097908</v>
       </c>
       <c r="D5" t="n">
-        <v>36369.81282051282</v>
+        <v>732677.7230769232</v>
       </c>
       <c r="E5" t="n">
-        <v>28.38205128205128</v>
+        <v>78.14102564102564</v>
       </c>
       <c r="F5" t="n">
-        <v>4.9855</v>
+        <v>1.0757</v>
       </c>
     </row>
     <row r="6">
@@ -487,20 +487,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(1000.0, 'Default', 2.0, 2.0)</t>
+          <t>(1000.0, 0.5, 2.0, 2.0)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9884343046476699</v>
+        <v>0.9993553136966983</v>
       </c>
       <c r="D6" t="n">
-        <v>12724.73076923077</v>
+        <v>421287.6064102564</v>
       </c>
       <c r="E6" t="n">
-        <v>18.26666666666667</v>
+        <v>60.19358974358974</v>
       </c>
       <c r="F6" t="n">
-        <v>14.3968</v>
+        <v>9.5145</v>
       </c>
     </row>
     <row r="7">
@@ -509,20 +509,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(500.0, 'Default', 2.0, 2.0)</t>
+          <t>(500.0, 0.5, 4.0, 2.0)</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9849967020470859</v>
+        <v>0.9993476575959169</v>
       </c>
       <c r="D7" t="n">
-        <v>13652.80512820513</v>
+        <v>238235.4128205128</v>
       </c>
       <c r="E7" t="n">
-        <v>17.93846153846154</v>
+        <v>52.67179487179487</v>
       </c>
       <c r="F7" t="n">
-        <v>7.445</v>
+        <v>7.408</v>
       </c>
     </row>
     <row r="8">
@@ -531,20 +531,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(500.0, 'Default', 2.0, 4.0)</t>
+          <t>(100.0, 0.5, 3.0, 2.0)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9826390921053793</v>
+        <v>0.9993362034996696</v>
       </c>
       <c r="D8" t="n">
-        <v>15606.03461538462</v>
+        <v>341923.5794871795</v>
       </c>
       <c r="E8" t="n">
-        <v>18.98333333333333</v>
+        <v>56.13846153846153</v>
       </c>
       <c r="F8" t="n">
-        <v>6.7553</v>
+        <v>1.3604</v>
       </c>
     </row>
     <row r="9">
@@ -553,20 +553,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(1000.0, 'Default', 2.0, 4.0)</t>
+          <t>(100.0, 0.25, 5.0, 2.0)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9820277992891923</v>
+        <v>0.99890870120116</v>
       </c>
       <c r="D9" t="n">
-        <v>16442.03076923077</v>
+        <v>158970.9153846154</v>
       </c>
       <c r="E9" t="n">
-        <v>19.88461538461539</v>
+        <v>56.17435897435897</v>
       </c>
       <c r="F9" t="n">
-        <v>13.0913</v>
+        <v>1.0494</v>
       </c>
     </row>
     <row r="10">
@@ -575,20 +575,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(100.0, 0.1, 2.0, 2.0)</t>
+          <t>(500.0, 0.25, 'Default', 2.0)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9635137628625543</v>
+        <v>0.998784644470181</v>
       </c>
       <c r="D10" t="n">
-        <v>132449.7974358974</v>
+        <v>235047.1269230769</v>
       </c>
       <c r="E10" t="n">
-        <v>55.14615384615384</v>
+        <v>52.47307692307692</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3825</v>
+        <v>5.6155</v>
       </c>
     </row>
     <row r="11">
@@ -597,20 +597,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(100.0, 0.1, 3.0, 4.0)</t>
+          <t>(1000.0, 0.25, 'Default', 2.0)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9453866904625757</v>
+        <v>0.9984649236322002</v>
       </c>
       <c r="D11" t="n">
-        <v>137127.0987179487</v>
+        <v>212924.5730769231</v>
       </c>
       <c r="E11" t="n">
-        <v>58.57820512820513</v>
+        <v>54.47820512820513</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4157</v>
+        <v>11.6429</v>
       </c>
     </row>
     <row r="12">
@@ -619,20 +619,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(100.0, 0.1, 1.0, 2.0)</t>
+          <t>(500.0, 0.25, 5.0, 4.0)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9355101727934523</v>
+        <v>0.997695774301176</v>
       </c>
       <c r="D12" t="n">
-        <v>400705.5294871795</v>
+        <v>194780.9320512821</v>
       </c>
       <c r="E12" t="n">
-        <v>94.47051282051281</v>
+        <v>59.49358974358974</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3236</v>
+        <v>4.6773</v>
       </c>
     </row>
     <row r="13">
@@ -641,20 +641,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(100.0, 0.1, 2.0, 4.0)</t>
+          <t>(100.0, 0.1, 3.0, 4.0)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9351775581613079</v>
+        <v>0.9892291064644262</v>
       </c>
       <c r="D13" t="n">
-        <v>131911.9307692308</v>
+        <v>17444877.21666667</v>
       </c>
       <c r="E13" t="n">
-        <v>62.1076923076923</v>
+        <v>306.2628205128205</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3717</v>
+        <v>0.4377</v>
       </c>
     </row>
     <row r="14">
@@ -663,20 +663,86 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>(100.0, 0.1, 2.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9802883959438971</v>
+      </c>
+      <c r="D14" t="n">
+        <v>37545266.1974359</v>
+      </c>
+      <c r="E14" t="n">
+        <v>433.4384615384615</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3891</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>(100.0, 0.1, 1.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9799316415206278</v>
+      </c>
+      <c r="D15" t="n">
+        <v>51623994.8448718</v>
+      </c>
+      <c r="E15" t="n">
+        <v>499.6782051282051</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>(100.0, 0.1, 1.0, 4.0)</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>0.9348620097605046</v>
-      </c>
-      <c r="D14" t="n">
-        <v>509717.0833333334</v>
-      </c>
-      <c r="E14" t="n">
-        <v>115.7448717948718</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.3073</v>
+      <c r="C16" t="n">
+        <v>0.9679749944687566</v>
+      </c>
+      <c r="D16" t="n">
+        <v>78848542.77820513</v>
+      </c>
+      <c r="E16" t="n">
+        <v>608.9115384615385</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3195</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>(100.0, 0.1, 2.0, 4.0)</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9673966042377607</v>
+      </c>
+      <c r="D17" t="n">
+        <v>80185475.87051281</v>
+      </c>
+      <c r="E17" t="n">
+        <v>582.4961538461538</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3738</v>
       </c>
     </row>
   </sheetData>

--- a/PROJ2/covid19_knn_regressor_rank.xlsx
+++ b/PROJ2/covid19_knn_regressor_rank.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Combinations</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'chebyshev', 'brute', 70)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'chebyshev', 'brute', 150)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'chebyshev', 'brute', 30)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'chebyshev', 'brute', 300)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'chebyshev', 'brute', 10)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'kd_tree', 10)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'brute', 10)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'kd_tree', 30)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'ball_tree', 30)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'ball_tree', 10)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -115,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -412,198 +353,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Combinations</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(500.0, 0.5, 2.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9994389466862063</v>
+      </c>
+      <c r="D2" t="n">
+        <v>292558.8397435897</v>
+      </c>
+      <c r="E2" t="n">
+        <v>55.92948717948718</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.8225</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(500.0, 0.5, 4.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9993476575959169</v>
+      </c>
+      <c r="D3" t="n">
+        <v>238235.4128205128</v>
+      </c>
+      <c r="E3" t="n">
+        <v>52.67179487179487</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.408</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(100.0, 0.5, 3.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9993362034996696</v>
+      </c>
+      <c r="D4" t="n">
+        <v>341923.5794871795</v>
+      </c>
+      <c r="E4" t="n">
+        <v>56.13846153846153</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.3604</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(100.0, 0.25, 5.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.99890870120116</v>
+      </c>
+      <c r="D5" t="n">
+        <v>158970.9153846154</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56.17435897435897</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.0494</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0.9996211712091984</v>
-      </c>
-      <c r="D2">
-        <v>31001.32435897436</v>
-      </c>
-      <c r="E2">
-        <v>25.11153846153846</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(500.0, 0.25, 'Default', 2.0)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.998784644470181</v>
+      </c>
+      <c r="D6" t="n">
+        <v>235047.1269230769</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52.47307692307692</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.6155</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>0.9996211712091984</v>
-      </c>
-      <c r="D3">
-        <v>31001.32435897436</v>
-      </c>
-      <c r="E3">
-        <v>25.11153846153846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(1000.0, 0.25, 'Default', 2.0)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9984649236322002</v>
+      </c>
+      <c r="D7" t="n">
+        <v>212924.5730769231</v>
+      </c>
+      <c r="E7" t="n">
+        <v>54.47820512820513</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11.6429</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>0.9996211712091984</v>
-      </c>
-      <c r="D4">
-        <v>31001.32435897436</v>
-      </c>
-      <c r="E4">
-        <v>25.11153846153846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(500.0, 0.25, 5.0, 4.0)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.997695774301176</v>
+      </c>
+      <c r="D8" t="n">
+        <v>194780.9320512821</v>
+      </c>
+      <c r="E8" t="n">
+        <v>59.49358974358974</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.6773</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>0.9996211712091984</v>
-      </c>
-      <c r="D5">
-        <v>31001.32435897436</v>
-      </c>
-      <c r="E5">
-        <v>25.11153846153846</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(100.0, 0.1, 3.0, 4.0)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9892291064644262</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17444877.21666667</v>
+      </c>
+      <c r="E9" t="n">
+        <v>306.2628205128205</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4377</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>0.9996211712091984</v>
-      </c>
-      <c r="D6">
-        <v>31001.32435897436</v>
-      </c>
-      <c r="E6">
-        <v>25.11153846153846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(100.0, 0.1, 2.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9802883959438971</v>
+      </c>
+      <c r="D10" t="n">
+        <v>37545266.1974359</v>
+      </c>
+      <c r="E10" t="n">
+        <v>433.4384615384615</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3891</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>0.9995973586037076</v>
-      </c>
-      <c r="D7">
-        <v>32408.03076923077</v>
-      </c>
-      <c r="E7">
-        <v>21.28974358974359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(100.0, 0.1, 1.0, 2.0)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9799316415206278</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51623994.8448718</v>
+      </c>
+      <c r="E11" t="n">
+        <v>499.6782051282051</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>0.9995973586037076</v>
-      </c>
-      <c r="D8">
-        <v>32408.03076923077</v>
-      </c>
-      <c r="E8">
-        <v>21.28974358974359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(100.0, 0.1, 1.0, 4.0)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9679749944687566</v>
+      </c>
+      <c r="D12" t="n">
+        <v>78848542.77820513</v>
+      </c>
+      <c r="E12" t="n">
+        <v>608.9115384615385</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3195</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>0.9995973586037076</v>
-      </c>
-      <c r="D9">
-        <v>32408.03076923077</v>
-      </c>
-      <c r="E9">
-        <v>21.28974358974359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>0.9995973586037076</v>
-      </c>
-      <c r="D10">
-        <v>32408.03076923077</v>
-      </c>
-      <c r="E10">
-        <v>21.28974358974359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>0.9995973586037076</v>
-      </c>
-      <c r="D11">
-        <v>32408.03076923077</v>
-      </c>
-      <c r="E11">
-        <v>21.28974358974359</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>(100.0, 0.1, 2.0, 4.0)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9673966042377607</v>
+      </c>
+      <c r="D13" t="n">
+        <v>80185475.87051281</v>
+      </c>
+      <c r="E13" t="n">
+        <v>582.4961538461538</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3738</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/PROJ2/covid19_knn_regressor_rank.xlsx
+++ b/PROJ2/covid19_knn_regressor_rank.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Combinations</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'chebyshev', 'brute', 70)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'chebyshev', 'brute', 150)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'chebyshev', 'brute', 30)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'chebyshev', 'brute', 300)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'chebyshev', 'brute', 10)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'kd_tree', 10)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'brute', 10)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'kd_tree', 30)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'ball_tree', 30)</t>
-  </si>
-  <si>
-    <t>(3, 'distance', 'manhattan', 'ball_tree', 10)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -115,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -412,198 +353,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Combinations</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(7, 'distance', 'manhattan', 'kd_tree', 10)</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999095677851279</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6827.301282051281</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.90641025641026</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(7, 'distance', 'manhattan', 'ball_tree', 10)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999095677851279</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6827.301282051281</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.90641025641026</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(7, 'distance', 'manhattan', 'kd_tree', 30)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9999095677851279</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6827.301282051281</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.90641025641026</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(7, 'distance', 'manhattan', 'kd_tree', 150)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9999095677851279</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6827.301282051281</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.90641025641026</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0.9996211712091984</v>
-      </c>
-      <c r="D2">
-        <v>31001.32435897436</v>
-      </c>
-      <c r="E2">
-        <v>25.11153846153846</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0.9996211712091984</v>
-      </c>
-      <c r="D3">
-        <v>31001.32435897436</v>
-      </c>
-      <c r="E3">
-        <v>25.11153846153846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0.9996211712091984</v>
-      </c>
-      <c r="D4">
-        <v>31001.32435897436</v>
-      </c>
-      <c r="E4">
-        <v>25.11153846153846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0.9996211712091984</v>
-      </c>
-      <c r="D5">
-        <v>31001.32435897436</v>
-      </c>
-      <c r="E5">
-        <v>25.11153846153846</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0.9996211712091984</v>
-      </c>
-      <c r="D6">
-        <v>31001.32435897436</v>
-      </c>
-      <c r="E6">
-        <v>25.11153846153846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0.9995973586037076</v>
-      </c>
-      <c r="D7">
-        <v>32408.03076923077</v>
-      </c>
-      <c r="E7">
-        <v>21.28974358974359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0.9995973586037076</v>
-      </c>
-      <c r="D8">
-        <v>32408.03076923077</v>
-      </c>
-      <c r="E8">
-        <v>21.28974358974359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.9995973586037076</v>
-      </c>
-      <c r="D9">
-        <v>32408.03076923077</v>
-      </c>
-      <c r="E9">
-        <v>21.28974358974359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>0.9995973586037076</v>
-      </c>
-      <c r="D10">
-        <v>32408.03076923077</v>
-      </c>
-      <c r="E10">
-        <v>21.28974358974359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>0.9995973586037076</v>
-      </c>
-      <c r="D11">
-        <v>32408.03076923077</v>
-      </c>
-      <c r="E11">
-        <v>21.28974358974359</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(7, 'distance', 'manhattan', 'ball_tree', 30)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9999095677851279</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6827.301282051281</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.90641025641026</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/PROJ2/covid19_knn_regressor_rank.xlsx
+++ b/PROJ2/covid19_knn_regressor_rank.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,6 +387,11 @@
           <t>MAE</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -394,17 +399,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(7, 'distance', 'manhattan', 'kd_tree', 30)</t>
+          <t>('poly', 1, 10, 'scale')</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9999095677851279</v>
+        <v>0.8052912305095016</v>
       </c>
       <c r="D2" t="n">
-        <v>6827.301282051281</v>
+        <v>42958976.67307692</v>
       </c>
       <c r="E2" t="n">
-        <v>11.90641025641026</v>
+        <v>937.9935897435897</v>
+      </c>
+      <c r="F2" t="n">
+        <v>219.1347</v>
       </c>
     </row>
     <row r="3">
@@ -413,17 +421,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(7, 'distance', 'manhattan', 'kd_tree', 150)</t>
+          <t>('poly', 0.2, 10, 'scale')</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9999095677851279</v>
+        <v>0.8052550238227575</v>
       </c>
       <c r="D3" t="n">
-        <v>6827.301282051281</v>
+        <v>42959827.17179487</v>
       </c>
       <c r="E3" t="n">
-        <v>11.90641025641026</v>
+        <v>937.9871794871796</v>
+      </c>
+      <c r="F3" t="n">
+        <v>159.1613</v>
       </c>
     </row>
     <row r="4">
@@ -432,17 +443,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(7, 'distance', 'manhattan', 'ball_tree', 30)</t>
+          <t>('poly', 0.2, 10, 'auto')</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9999095677851279</v>
+        <v>0.8052550238227575</v>
       </c>
       <c r="D4" t="n">
-        <v>6827.301282051281</v>
+        <v>42959827.17179487</v>
       </c>
       <c r="E4" t="n">
-        <v>11.90641025641026</v>
+        <v>937.9871794871796</v>
+      </c>
+      <c r="F4" t="n">
+        <v>163.5467</v>
       </c>
     </row>
     <row r="5">
@@ -451,17 +465,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(7, 'distance', 'manhattan', 'kd_tree', 10)</t>
+          <t>('poly', 0.1, 10, 'scale')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9999095677851279</v>
+        <v>0.805253914689732</v>
       </c>
       <c r="D5" t="n">
-        <v>6827.301282051281</v>
+        <v>42959790.01666667</v>
       </c>
       <c r="E5" t="n">
-        <v>11.90641025641026</v>
+        <v>937.9807692307692</v>
+      </c>
+      <c r="F5" t="n">
+        <v>178.7866</v>
       </c>
     </row>
     <row r="6">
@@ -470,17 +487,130 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(7, 'distance', 'manhattan', 'ball_tree', 10)</t>
+          <t>('poly', 0.1, 10, 'auto')</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9999095677851279</v>
+        <v>0.805253914689732</v>
       </c>
       <c r="D6" t="n">
-        <v>6827.301282051281</v>
+        <v>42959790.01666667</v>
       </c>
       <c r="E6" t="n">
-        <v>11.90641025641026</v>
+        <v>937.9807692307692</v>
+      </c>
+      <c r="F6" t="n">
+        <v>180.5983</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>('poly', 1, 1, 'auto')</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6401004985384136</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60958623.00256411</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1116.597435897436</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67.3304</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>('poly', 1, 1, 'scale')</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6401004985384136</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60958623.00256411</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1116.597435897436</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67.71080000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>('poly', 0.2, 1, 'auto')</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6400445166301774</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60959141.63717949</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1116.59358974359</v>
+      </c>
+      <c r="F9" t="n">
+        <v>91.8192</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>('poly', 0.1, 1, 'auto')</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6400441420509662</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60958983.59102565</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1116.585897435898</v>
+      </c>
+      <c r="F10" t="n">
+        <v>62.5515</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>('poly', 0.1, 1, 'scale')</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6400441420509662</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60958983.59102565</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1116.585897435898</v>
+      </c>
+      <c r="F11" t="n">
+        <v>62.6059</v>
       </c>
     </row>
   </sheetData>

--- a/PROJ2/covid19_knn_regressor_rank.xlsx
+++ b/PROJ2/covid19_knn_regressor_rank.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('poly', 1, 10, 'scale')</t>
+          <t>('poly', 1, 10, 'auto')</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -412,7 +412,7 @@
         <v>937.9935897435897</v>
       </c>
       <c r="F2" t="n">
-        <v>219.1347</v>
+        <v>210.0792</v>
       </c>
     </row>
     <row r="3">
@@ -421,20 +421,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('poly', 0.2, 10, 'scale')</t>
+          <t>('poly', 1, 10, 'scale')</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8052550238227575</v>
+        <v>0.8052912305095016</v>
       </c>
       <c r="D3" t="n">
-        <v>42959827.17179487</v>
+        <v>42958976.67307692</v>
       </c>
       <c r="E3" t="n">
-        <v>937.9871794871796</v>
+        <v>937.9935897435897</v>
       </c>
       <c r="F3" t="n">
-        <v>159.1613</v>
+        <v>219.1347</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('poly', 0.2, 10, 'auto')</t>
+          <t>('poly', 0.2, 10, 'scale')</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -456,7 +456,7 @@
         <v>937.9871794871796</v>
       </c>
       <c r="F4" t="n">
-        <v>163.5467</v>
+        <v>159.1613</v>
       </c>
     </row>
     <row r="5">
@@ -465,20 +465,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('poly', 0.1, 10, 'scale')</t>
+          <t>('poly', 0.2, 10, 'auto')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.805253914689732</v>
+        <v>0.8052550238227575</v>
       </c>
       <c r="D5" t="n">
-        <v>42959790.01666667</v>
+        <v>42959827.17179487</v>
       </c>
       <c r="E5" t="n">
-        <v>937.9807692307692</v>
+        <v>937.9871794871796</v>
       </c>
       <c r="F5" t="n">
-        <v>178.7866</v>
+        <v>163.5467</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('poly', 0.1, 10, 'auto')</t>
+          <t>('poly', 0.1, 10, 'scale')</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -500,7 +500,7 @@
         <v>937.9807692307692</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5983</v>
+        <v>178.7866</v>
       </c>
     </row>
     <row r="7">
@@ -509,20 +509,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('poly', 1, 1, 'auto')</t>
+          <t>('poly', 0.1, 10, 'auto')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6401004985384136</v>
+        <v>0.805253914689732</v>
       </c>
       <c r="D7" t="n">
-        <v>60958623.00256411</v>
+        <v>42959790.01666667</v>
       </c>
       <c r="E7" t="n">
-        <v>1116.597435897436</v>
+        <v>937.9807692307692</v>
       </c>
       <c r="F7" t="n">
-        <v>67.3304</v>
+        <v>180.5983</v>
       </c>
     </row>
     <row r="8">
@@ -531,7 +531,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('poly', 1, 1, 'scale')</t>
+          <t>('poly', 1, 1, 'auto')</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -544,7 +544,7 @@
         <v>1116.597435897436</v>
       </c>
       <c r="F8" t="n">
-        <v>67.71080000000001</v>
+        <v>67.3304</v>
       </c>
     </row>
     <row r="9">
@@ -553,20 +553,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('poly', 0.2, 1, 'auto')</t>
+          <t>('poly', 1, 1, 'scale')</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6400445166301774</v>
+        <v>0.6401004985384136</v>
       </c>
       <c r="D9" t="n">
-        <v>60959141.63717949</v>
+        <v>60958623.00256411</v>
       </c>
       <c r="E9" t="n">
-        <v>1116.59358974359</v>
+        <v>1116.597435897436</v>
       </c>
       <c r="F9" t="n">
-        <v>91.8192</v>
+        <v>67.71080000000001</v>
       </c>
     </row>
     <row r="10">
@@ -575,20 +575,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('poly', 0.1, 1, 'auto')</t>
+          <t>('poly', 0.2, 1, 'auto')</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6400441420509662</v>
+        <v>0.6400445166301774</v>
       </c>
       <c r="D10" t="n">
-        <v>60958983.59102565</v>
+        <v>60959141.63717949</v>
       </c>
       <c r="E10" t="n">
-        <v>1116.585897435898</v>
+        <v>1116.59358974359</v>
       </c>
       <c r="F10" t="n">
-        <v>62.5515</v>
+        <v>91.8192</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('poly', 0.1, 1, 'scale')</t>
+          <t>('poly', 0.1, 1, 'auto')</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -610,6 +610,28 @@
         <v>1116.585897435898</v>
       </c>
       <c r="F11" t="n">
+        <v>62.5515</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>('poly', 0.1, 1, 'scale')</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6400441420509662</v>
+      </c>
+      <c r="D12" t="n">
+        <v>60958983.59102565</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1116.585897435898</v>
+      </c>
+      <c r="F12" t="n">
         <v>62.6059</v>
       </c>
     </row>

--- a/PROJ2/covid19_knn_regressor_rank.xlsx
+++ b/PROJ2/covid19_knn_regressor_rank.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,11 +387,6 @@
           <t>MAE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -399,20 +394,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('poly', 1, 10, 'auto')</t>
+          <t>(7, 'distance', 'manhattan', 'kd_tree', 10)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8052912305095016</v>
+        <v>0.9999095677851279</v>
       </c>
       <c r="D2" t="n">
-        <v>42958976.67307692</v>
+        <v>6827.301282051281</v>
       </c>
       <c r="E2" t="n">
-        <v>937.9935897435897</v>
-      </c>
-      <c r="F2" t="n">
-        <v>210.0792</v>
+        <v>11.90641025641026</v>
       </c>
     </row>
     <row r="3">
@@ -421,20 +413,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('poly', 1, 10, 'scale')</t>
+          <t>(7, 'distance', 'manhattan', 'ball_tree', 30)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8052912305095016</v>
+        <v>0.9999095677851279</v>
       </c>
       <c r="D3" t="n">
-        <v>42958976.67307692</v>
+        <v>6827.301282051281</v>
       </c>
       <c r="E3" t="n">
-        <v>937.9935897435897</v>
-      </c>
-      <c r="F3" t="n">
-        <v>219.1347</v>
+        <v>11.90641025641026</v>
       </c>
     </row>
     <row r="4">
@@ -443,20 +432,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('poly', 0.2, 10, 'scale')</t>
+          <t>(7, 'distance', 'manhattan', 'ball_tree', 10)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8052550238227575</v>
+        <v>0.9999095677851279</v>
       </c>
       <c r="D4" t="n">
-        <v>42959827.17179487</v>
+        <v>6827.301282051281</v>
       </c>
       <c r="E4" t="n">
-        <v>937.9871794871796</v>
-      </c>
-      <c r="F4" t="n">
-        <v>159.1613</v>
+        <v>11.90641025641026</v>
       </c>
     </row>
     <row r="5">
@@ -465,20 +451,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('poly', 0.2, 10, 'auto')</t>
+          <t>(7, 'distance', 'manhattan', 'kd_tree', 150)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8052550238227575</v>
+        <v>0.9999095677851279</v>
       </c>
       <c r="D5" t="n">
-        <v>42959827.17179487</v>
+        <v>6827.301282051281</v>
       </c>
       <c r="E5" t="n">
-        <v>937.9871794871796</v>
-      </c>
-      <c r="F5" t="n">
-        <v>163.5467</v>
+        <v>11.90641025641026</v>
       </c>
     </row>
     <row r="6">
@@ -487,152 +470,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('poly', 0.1, 10, 'scale')</t>
+          <t>(7, 'distance', 'manhattan', 'kd_tree', 30)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.805253914689732</v>
+        <v>0.9999095677851279</v>
       </c>
       <c r="D6" t="n">
-        <v>42959790.01666667</v>
+        <v>6827.301282051281</v>
       </c>
       <c r="E6" t="n">
-        <v>937.9807692307692</v>
-      </c>
-      <c r="F6" t="n">
-        <v>178.7866</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>('poly', 0.1, 10, 'auto')</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.805253914689732</v>
-      </c>
-      <c r="D7" t="n">
-        <v>42959790.01666667</v>
-      </c>
-      <c r="E7" t="n">
-        <v>937.9807692307692</v>
-      </c>
-      <c r="F7" t="n">
-        <v>180.5983</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>('poly', 1, 1, 'auto')</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6401004985384136</v>
-      </c>
-      <c r="D8" t="n">
-        <v>60958623.00256411</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1116.597435897436</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67.3304</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>('poly', 1, 1, 'scale')</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6401004985384136</v>
-      </c>
-      <c r="D9" t="n">
-        <v>60958623.00256411</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1116.597435897436</v>
-      </c>
-      <c r="F9" t="n">
-        <v>67.71080000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>('poly', 0.2, 1, 'auto')</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6400445166301774</v>
-      </c>
-      <c r="D10" t="n">
-        <v>60959141.63717949</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1116.59358974359</v>
-      </c>
-      <c r="F10" t="n">
-        <v>91.8192</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>('poly', 0.1, 1, 'auto')</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6400441420509662</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60958983.59102565</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1116.585897435898</v>
-      </c>
-      <c r="F11" t="n">
-        <v>62.5515</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>('poly', 0.1, 1, 'scale')</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6400441420509662</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60958983.59102565</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1116.585897435898</v>
-      </c>
-      <c r="F12" t="n">
-        <v>62.6059</v>
+        <v>11.90641025641026</v>
       </c>
     </row>
   </sheetData>
